--- a/HON.xlsx
+++ b/HON.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u144455\OneDrive - Eastman Chemical Company\Desktop\personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u144455\OneDrive - Eastman Chemical Company\Desktop\personal\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Price</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Taxes</t>
   </si>
   <si>
-    <t>Net Income</t>
-  </si>
-  <si>
     <t>EPS</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t xml:space="preserve">Repositioning </t>
   </si>
   <si>
-    <t>Amoprtization</t>
-  </si>
-  <si>
     <t>WC</t>
   </si>
   <si>
@@ -234,6 +228,21 @@
   </si>
   <si>
     <t>Profit  Margin q/q</t>
+  </si>
+  <si>
+    <t>NI Pre-NCI</t>
+  </si>
+  <si>
+    <t>NCI</t>
+  </si>
+  <si>
+    <t>NI Post-NCI</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Amortization</t>
   </si>
 </sst>
 </file>
@@ -298,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -313,7 +322,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -398,15 +406,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>157370</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -421,8 +429,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10229022" y="182217"/>
-          <a:ext cx="0" cy="6932544"/>
+          <a:off x="10810875" y="0"/>
+          <a:ext cx="0" cy="8086725"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -722,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,12 +742,12 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>0</v>
@@ -750,7 +758,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
         <v>1</v>
@@ -764,7 +772,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
         <v>2</v>
@@ -787,7 +795,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
         <v>4</v>
@@ -802,7 +810,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
         <v>5</v>
@@ -814,47 +822,47 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -866,13 +874,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -891,16 +899,16 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
@@ -921,7 +929,10 @@
         <v>6</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="R2" s="4">
         <v>2019</v>
@@ -949,12 +960,14 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6">
+        <v>3204</v>
+      </c>
       <c r="G3" s="6">
         <v>3111</v>
       </c>
@@ -964,25 +977,29 @@
       <c r="I3" s="6">
         <v>3499</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="J3" s="6">
+        <v>3673</v>
+      </c>
       <c r="K3" s="6">
         <v>3669</v>
       </c>
       <c r="L3" s="6">
         <v>3891</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="6">
         <v>3912</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6">
+        <v>1514</v>
+      </c>
       <c r="G4" s="6">
         <v>2803</v>
       </c>
@@ -992,20 +1009,28 @@
       <c r="I4" s="6">
         <v>2630</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="6">
+        <v>1504</v>
+      </c>
       <c r="K4" s="6">
         <v>2478</v>
       </c>
       <c r="L4" s="6">
         <v>2506</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="6">
         <v>2501</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>2860</v>
       </c>
       <c r="G5" s="6">
         <v>1487</v>
@@ -1016,20 +1041,28 @@
       <c r="I5" s="6">
         <v>1530</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="6">
+        <v>1504</v>
+      </c>
       <c r="K5" s="6">
         <v>1426</v>
       </c>
       <c r="L5" s="6">
         <v>1571</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="6">
         <v>1745</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>1607</v>
       </c>
       <c r="G6" s="6">
         <v>1461</v>
@@ -1040,20 +1073,28 @@
       <c r="I6" s="6">
         <v>1551</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6">
+        <v>1227</v>
+      </c>
       <c r="K6" s="6">
         <v>1525</v>
       </c>
       <c r="L6" s="6">
         <v>1604</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="6">
         <v>1563</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
+        <v>1</v>
       </c>
       <c r="G7" s="6">
         <v>2</v>
@@ -1064,14 +1105,16 @@
       <c r="I7" s="6">
         <v>2</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6">
+        <v>7</v>
+      </c>
       <c r="K7" s="6">
         <v>7</v>
       </c>
       <c r="L7" s="6">
         <v>5</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="6">
         <v>7</v>
       </c>
     </row>
@@ -1085,31 +1128,55 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="11">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10">
+        <f>+J3/F3-1</f>
+        <v>0.14637952559300871</v>
+      </c>
+      <c r="K9" s="10">
         <f>+K3/G3-1</f>
         <v>0.17936354869816773</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <f>+L3/H3-1</f>
         <v>0.16462137084705186</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <f>+M3/I3-1</f>
         <v>0.11803372392112021</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>6556</v>
+      </c>
+      <c r="G12" s="6">
+        <v>6310</v>
+      </c>
+      <c r="H12" s="6">
+        <v>6441</v>
       </c>
       <c r="I12" s="6">
         <v>6294</v>
+      </c>
+      <c r="J12" s="6">
+        <v>6728</v>
+      </c>
+      <c r="K12" s="4">
+        <v>6263</v>
+      </c>
+      <c r="L12" s="4">
+        <v>6477</v>
       </c>
       <c r="M12" s="6">
         <f>6590</f>
@@ -1127,10 +1194,32 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>2630</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2554</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2705</v>
       </c>
       <c r="I13" s="6">
         <v>2918</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2712</v>
+      </c>
+      <c r="K13" s="6">
+        <f>2842</f>
+        <v>2842</v>
+      </c>
+      <c r="L13" s="4">
+        <v>3100</v>
       </c>
       <c r="M13" s="6">
         <v>3138</v>
@@ -1149,26 +1238,35 @@
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <f>+F13+F12</f>
+        <v>9186</v>
+      </c>
       <c r="G14" s="6">
-        <f>6310+2554</f>
+        <f>+G13+G12</f>
         <v>8864</v>
       </c>
       <c r="H14" s="6">
-        <f>6441+2705</f>
+        <f>+H13+H12</f>
         <v>9146</v>
       </c>
       <c r="I14" s="6">
         <f>+I13+I12</f>
         <v>9212</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="6">
+        <f>+J13+J12</f>
+        <v>9440</v>
+      </c>
       <c r="K14" s="6">
-        <f>6263+2842</f>
+        <f>+K13+K12</f>
         <v>9105</v>
       </c>
       <c r="L14" s="6">
-        <f>6477+3100</f>
+        <f>+L13+L12</f>
         <v>9577</v>
       </c>
       <c r="M14" s="6">
@@ -1192,7 +1290,13 @@
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <f>4281+1488</f>
+        <v>5769</v>
+      </c>
       <c r="G15" s="6">
         <f>4068+1430</f>
         <v>5498</v>
@@ -1205,7 +1309,10 @@
         <f>4090+1580</f>
         <v>5670</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="6">
+        <f>4686+1515</f>
+        <v>6201</v>
+      </c>
       <c r="K15" s="6">
         <f>4035+1548</f>
         <v>5583</v>
@@ -1235,7 +1342,13 @@
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
+        <f>+F14-F15</f>
+        <v>3417</v>
+      </c>
       <c r="G16" s="6">
         <f>+G14-G15</f>
         <v>3366</v>
@@ -1248,10 +1361,13 @@
         <f>+I14-I15</f>
         <v>3542</v>
       </c>
-      <c r="J16" s="6"/>
+      <c r="J16" s="6">
+        <f>+J14-J15</f>
+        <v>3239</v>
+      </c>
       <c r="K16" s="6">
-        <f>+K14-K15</f>
-        <v>3522</v>
+        <f>+K13-K15</f>
+        <v>-2741</v>
       </c>
       <c r="L16" s="6">
         <f>+L14-L15</f>
@@ -1276,9 +1392,14 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
+        <v>355</v>
+      </c>
       <c r="G17" s="6">
         <v>357</v>
       </c>
@@ -1288,7 +1409,9 @@
       <c r="I17" s="6">
         <v>364</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="6">
+        <v>360</v>
+      </c>
       <c r="K17" s="6">
         <v>360</v>
       </c>
@@ -1312,7 +1435,12 @@
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
+        <v>1249</v>
+      </c>
       <c r="G18" s="6">
         <v>1317</v>
       </c>
@@ -1322,7 +1450,9 @@
       <c r="I18" s="6">
         <v>1252</v>
       </c>
-      <c r="J18" s="6"/>
+      <c r="J18" s="6">
+        <v>1296</v>
+      </c>
       <c r="K18" s="6">
         <v>1302</v>
       </c>
@@ -1344,9 +1474,14 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
+        <v>480</v>
+      </c>
       <c r="G19" s="6">
         <v>-260</v>
       </c>
@@ -1356,7 +1491,9 @@
       <c r="I19" s="6">
         <v>-247</v>
       </c>
-      <c r="J19" s="6"/>
+      <c r="J19" s="6">
+        <v>-125</v>
+      </c>
       <c r="K19" s="6">
         <v>-231</v>
       </c>
@@ -1379,9 +1516,14 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <v>144</v>
+      </c>
       <c r="G20" s="6">
         <v>170</v>
       </c>
@@ -1391,7 +1533,9 @@
       <c r="I20" s="6">
         <v>206</v>
       </c>
-      <c r="J20" s="6"/>
+      <c r="J20" s="6">
+        <v>202</v>
+      </c>
       <c r="K20" s="6">
         <v>220</v>
       </c>
@@ -1415,7 +1559,13 @@
       <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
+        <f>+F17+F18+F19+F20</f>
+        <v>2228</v>
+      </c>
       <c r="G21" s="6">
         <f>+G17+G18+G19+G20</f>
         <v>1584</v>
@@ -1428,7 +1578,10 @@
         <f>+I17+I18+I19+I20</f>
         <v>1575</v>
       </c>
-      <c r="J21" s="6"/>
+      <c r="J21" s="6">
+        <f>+J17+J18+J19+J20</f>
+        <v>1733</v>
+      </c>
       <c r="K21" s="6">
         <f>+K17+K18+K19+K20</f>
         <v>1651</v>
@@ -1459,7 +1612,13 @@
       <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
+        <f>+F16-F21</f>
+        <v>1189</v>
+      </c>
       <c r="G22" s="6">
         <f>+G16-G21</f>
         <v>1782</v>
@@ -1472,10 +1631,13 @@
         <f>+I16-I21</f>
         <v>1967</v>
       </c>
-      <c r="J22" s="6"/>
+      <c r="J22" s="6">
+        <f>+J16-J21</f>
+        <v>1506</v>
+      </c>
       <c r="K22" s="6">
         <f>+K16-K21</f>
-        <v>1871</v>
+        <v>-4392</v>
       </c>
       <c r="L22" s="6">
         <f>+L16-L21</f>
@@ -1502,7 +1664,10 @@
       <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="6">
+      <c r="F23" s="4">
+        <v>168</v>
+      </c>
+      <c r="G23" s="4">
         <v>374</v>
       </c>
       <c r="H23" s="4">
@@ -1511,6 +1676,9 @@
       <c r="I23" s="4">
         <v>452</v>
       </c>
+      <c r="J23" s="4">
+        <v>258</v>
+      </c>
       <c r="K23" s="6">
         <v>396</v>
       </c>
@@ -1532,759 +1700,1019 @@
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
+        <f>+F22-F23</f>
+        <v>1021</v>
       </c>
       <c r="G24" s="6">
-        <f>+G22-G23-14</f>
-        <v>1394</v>
+        <f>+G22-G23</f>
+        <v>1408</v>
       </c>
       <c r="H24" s="6">
-        <f>+H22-H23-14</f>
-        <v>1487</v>
+        <f>+H22-H23</f>
+        <v>1501</v>
       </c>
       <c r="I24" s="6">
-        <f>+I22-I23-1</f>
-        <v>1514</v>
+        <f>+I22-I23</f>
+        <v>1515</v>
+      </c>
+      <c r="J24" s="6">
+        <f>+J22-J23</f>
+        <v>1248</v>
       </c>
       <c r="K24" s="6">
-        <f>+K22-K23-12</f>
-        <v>1463</v>
+        <f>+K22-K23</f>
+        <v>-4788</v>
       </c>
       <c r="L24" s="6">
-        <f>+L22-L23-16</f>
-        <v>1544</v>
+        <f>+L22-L23</f>
+        <v>1560</v>
       </c>
       <c r="M24" s="6">
-        <f>+M22-M23-2</f>
-        <v>1413</v>
+        <f>+M22-M23</f>
+        <v>1415</v>
       </c>
       <c r="T24" s="6">
-        <f>T22-T23-68</f>
-        <v>5542</v>
+        <f>T22-T23</f>
+        <v>5610</v>
       </c>
       <c r="U24" s="6">
-        <f>U22-U23-1</f>
-        <v>4966</v>
+        <f>U22-U23</f>
+        <v>4967</v>
       </c>
       <c r="V24" s="6">
-        <f>V22-V23-14</f>
-        <v>5658</v>
+        <f>V22-V23</f>
+        <v>5672</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5">
-        <f>+G24/G26</f>
-        <v>2.0713224368499259</v>
-      </c>
-      <c r="H25" s="5">
-        <f>+H24/H26</f>
-        <v>2.2187406744255447</v>
-      </c>
-      <c r="I25" s="5">
-        <f>+I24/I26</f>
-        <v>2.269865067466267</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5">
-        <f>+K24/K26</f>
-        <v>2.2281449893390191</v>
-      </c>
-      <c r="L25" s="5">
-        <f>+L24/L26</f>
-        <v>2.3601345154387037</v>
-      </c>
-      <c r="M25" s="5">
-        <f>+M24/M26</f>
-        <v>2.1602201498241858</v>
-      </c>
-      <c r="T25" s="5">
-        <f>+T24/T26</f>
-        <v>7.9126213592233015</v>
-      </c>
-      <c r="U25" s="5">
-        <f>+U24/U26</f>
-        <v>7.2697994437124871</v>
-      </c>
-      <c r="V25" s="5">
-        <f>+V24/V26</f>
-        <v>8.4675246932056272</v>
+        <v>65</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6">
+        <v>2</v>
+      </c>
+      <c r="G25" s="6">
+        <v>14</v>
+      </c>
+      <c r="H25" s="6">
+        <v>14</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
+        <v>-15</v>
+      </c>
+      <c r="K25" s="6">
+        <v>12</v>
+      </c>
+      <c r="L25" s="6">
+        <v>16</v>
+      </c>
+      <c r="M25" s="6">
+        <v>2</v>
+      </c>
+      <c r="T25" s="6">
+        <v>68</v>
+      </c>
+      <c r="U25" s="6">
+        <v>1</v>
+      </c>
+      <c r="V25" s="6">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6">
+        <f>F24-F25</f>
+        <v>1019</v>
+      </c>
+      <c r="G26" s="6">
+        <f>G24-G25</f>
+        <v>1394</v>
+      </c>
+      <c r="H26" s="6">
+        <f>H24-H25</f>
+        <v>1487</v>
+      </c>
+      <c r="I26" s="6">
+        <f>I24-I25</f>
+        <v>1514</v>
+      </c>
+      <c r="J26" s="6">
+        <f>J24-J25</f>
+        <v>1263</v>
+      </c>
+      <c r="K26" s="6">
+        <f>K24-K25</f>
+        <v>-4800</v>
+      </c>
+      <c r="L26" s="6">
+        <f>L24-L25</f>
+        <v>1544</v>
+      </c>
+      <c r="M26" s="6">
+        <f>M24-M25</f>
+        <v>1413</v>
+      </c>
+      <c r="T26" s="6">
+        <f>T24-T25</f>
+        <v>5542</v>
+      </c>
+      <c r="U26" s="6">
+        <f>U24-U25</f>
+        <v>4966</v>
+      </c>
+      <c r="V26" s="6">
+        <f>V24-V25</f>
+        <v>5658</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5">
+        <f>+F24/F28</f>
+        <v>1.5092387287509239</v>
+      </c>
+      <c r="G27" s="5">
+        <f>+G26/G28</f>
+        <v>2.0713224368499259</v>
+      </c>
+      <c r="H27" s="5">
+        <f>+H26/H28</f>
+        <v>2.2187406744255447</v>
+      </c>
+      <c r="I27" s="5">
+        <f>+I24/I28</f>
+        <v>2.2713643178410794</v>
+      </c>
+      <c r="J27" s="5">
+        <f>+J26/J28</f>
+        <v>1.9110304130730822</v>
+      </c>
+      <c r="K27" s="5">
+        <f>+K26/K28</f>
+        <v>-7.3103868413036857</v>
+      </c>
+      <c r="L27" s="5">
+        <f>+L26/L28</f>
+        <v>2.3601345154387037</v>
+      </c>
+      <c r="M27" s="5">
+        <f>+M24/M28</f>
+        <v>2.1632777862712125</v>
+      </c>
+      <c r="T27" s="5">
+        <f>T26/T28</f>
+        <v>7.9126213592233015</v>
+      </c>
+      <c r="U27" s="5">
+        <f>U26/U28</f>
+        <v>7.2697994437124871</v>
+      </c>
+      <c r="V27" s="5">
+        <f>V26/V28</f>
+        <v>8.4675246932056272</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6">
+        <v>676.5</v>
+      </c>
+      <c r="G28" s="6">
         <f>673</f>
         <v>673</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H28" s="6">
         <v>670.2</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I28" s="6">
         <v>667</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6">
+      <c r="J28" s="6">
+        <v>660.9</v>
+      </c>
+      <c r="K28" s="6">
         <f>656.6</f>
         <v>656.6</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L28" s="6">
         <v>654.20000000000005</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M28" s="6">
         <v>654.1</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T28" s="6">
         <v>700.4</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U28" s="6">
         <v>683.1</v>
       </c>
-      <c r="V26" s="6">
+      <c r="V28" s="6">
         <v>668.2</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="s">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="6">
+        <f>+F26</f>
+        <v>1019</v>
+      </c>
+      <c r="G30" s="6">
+        <f>+G26</f>
+        <v>1394</v>
+      </c>
+      <c r="H30" s="6">
+        <f>+H26</f>
+        <v>1487</v>
+      </c>
+      <c r="I30" s="6">
+        <f>+I26</f>
+        <v>1514</v>
+      </c>
+      <c r="J30" s="6">
+        <f>+J26</f>
+        <v>1263</v>
+      </c>
+      <c r="K30" s="6">
+        <f>+K26</f>
+        <v>-4800</v>
+      </c>
+      <c r="L30" s="6">
+        <f>+L26</f>
+        <v>1544</v>
+      </c>
+      <c r="M30" s="6">
+        <f>+M26</f>
+        <v>1413</v>
+      </c>
+      <c r="T30" s="6">
+        <f>+T24</f>
+        <v>5610</v>
+      </c>
+      <c r="U30" s="6">
+        <f>+U24</f>
+        <v>4967</v>
+      </c>
+      <c r="V30" s="6">
+        <f>+V24</f>
+        <v>5672</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B31" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="6">
-        <f>+G24</f>
+      <c r="F31" s="4">
+        <v>1019</v>
+      </c>
+      <c r="G31" s="6">
         <v>1394</v>
       </c>
-      <c r="H28" s="6">
-        <f>+H24</f>
+      <c r="H31" s="6">
         <v>1487</v>
       </c>
-      <c r="I28" s="6">
-        <f>+I24</f>
+      <c r="I31" s="6">
         <v>1514</v>
       </c>
-      <c r="K28" s="6">
-        <f>+K24</f>
+      <c r="J31" s="4">
+        <v>1263</v>
+      </c>
+      <c r="K31" s="6">
         <v>1463</v>
       </c>
-      <c r="L28" s="6">
-        <f>+L24</f>
+      <c r="L31" s="6">
         <v>1544</v>
       </c>
-      <c r="M28" s="6">
-        <f>+M24</f>
+      <c r="M31" s="6">
         <v>1413</v>
       </c>
-      <c r="T28" s="6">
-        <f>+T24</f>
+      <c r="T31" s="6">
         <v>5542</v>
       </c>
-      <c r="U28" s="6">
-        <f>+U24</f>
-        <v>4966</v>
-      </c>
-      <c r="V28" s="6">
-        <f>+V24</f>
+      <c r="U31" s="6">
+        <v>4996</v>
+      </c>
+      <c r="V31" s="6">
         <v>5658</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B29" s="9" t="s">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="6">
-        <v>1394</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1487</v>
-      </c>
-      <c r="I29" s="6">
-        <v>1514</v>
-      </c>
-      <c r="K29" s="6">
-        <v>1463</v>
-      </c>
-      <c r="L29" s="10">
-        <v>1544</v>
-      </c>
-      <c r="M29" s="4">
-        <v>1413</v>
-      </c>
-      <c r="T29" s="6">
-        <v>5542</v>
-      </c>
-      <c r="U29" s="6">
-        <v>4996</v>
-      </c>
-      <c r="V29" s="6">
-        <v>5658</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="F33" s="4">
+        <v>163</v>
+      </c>
+      <c r="G33" s="4">
         <v>161</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H33" s="4">
         <v>166</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I33" s="4">
         <v>166</v>
       </c>
-      <c r="K31" s="4">
+      <c r="J33" s="4">
         <v>166</v>
       </c>
-      <c r="L31" s="4">
+      <c r="K33" s="4">
+        <v>166</v>
+      </c>
+      <c r="L33" s="4">
         <v>163</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M33" s="4">
         <v>171</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T33" s="4">
         <v>674</v>
       </c>
-      <c r="U31" s="4">
+      <c r="U33" s="4">
         <v>657</v>
       </c>
-      <c r="V31" s="4">
+      <c r="V33" s="4">
         <v>659</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="4">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="4">
+        <v>136</v>
+      </c>
+      <c r="G34" s="4">
         <v>122</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H34" s="4">
         <v>118</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I34" s="4">
         <v>142</v>
       </c>
-      <c r="K32" s="4">
+      <c r="J34" s="4">
+        <v>135</v>
+      </c>
+      <c r="K34" s="4">
         <v>125</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L34" s="4">
         <v>146</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M34" s="4">
         <f>186+125</f>
         <v>311</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T34" s="4">
         <f>549-102</f>
         <v>447</v>
       </c>
-      <c r="U32" s="4">
+      <c r="U34" s="4">
         <f>547-22</f>
         <v>525</v>
       </c>
-      <c r="V32" s="4">
+      <c r="V34" s="4">
         <f>517-5</f>
         <v>512</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="4">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="4">
+        <f>552-196</f>
+        <v>356</v>
+      </c>
+      <c r="G35" s="4">
         <f>141-41</f>
         <v>100</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H35" s="4">
         <f>102-154</f>
         <v>-52</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I35" s="4">
         <f>88-128</f>
         <v>-40</v>
       </c>
-      <c r="K33" s="4">
+      <c r="J35" s="4">
+        <f>529-136</f>
+        <v>393</v>
+      </c>
+      <c r="K35" s="4">
         <f>93-124</f>
         <v>-31</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L35" s="4">
         <f>44-87</f>
         <v>-43</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M35" s="4">
         <f>52-118</f>
         <v>-66</v>
       </c>
-      <c r="T33" s="4">
+      <c r="T35" s="4">
         <f>569-692</f>
         <v>-123</v>
       </c>
-      <c r="U33" s="4">
+      <c r="U35" s="4">
         <f>1266-512</f>
         <v>754</v>
       </c>
-      <c r="V33" s="4">
+      <c r="V35" s="4">
         <f>860-459</f>
         <v>401</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="4">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
         <v>-1325</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H36" s="4">
         <v>0</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I36" s="4">
         <v>0</v>
       </c>
-      <c r="K34" s="4">
+      <c r="J36" s="4">
         <v>0</v>
       </c>
-      <c r="L34" s="4">
+      <c r="K36" s="4">
         <v>0</v>
       </c>
-      <c r="M34" s="4">
+      <c r="L36" s="4">
         <v>0</v>
       </c>
-      <c r="T34" s="4">
+      <c r="M36" s="4">
         <v>0</v>
       </c>
-      <c r="U34" s="4">
+      <c r="T36" s="4">
         <v>0</v>
       </c>
-      <c r="V34" s="4">
+      <c r="U36" s="4">
+        <v>0</v>
+      </c>
+      <c r="V36" s="4">
         <v>-1325</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B35" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" s="4">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="4">
+        <f>268-9</f>
+        <v>259</v>
+      </c>
+      <c r="G37" s="4">
         <f>-136-15</f>
         <v>-151</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H37" s="4">
         <f>-137-8</f>
         <v>-145</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I37" s="4">
         <f>-137-2</f>
         <v>-139</v>
       </c>
-      <c r="K35" s="4">
+      <c r="J37" s="4">
+        <f>4-13</f>
+        <v>-9</v>
+      </c>
+      <c r="K37" s="4">
         <f>-151-8</f>
         <v>-159</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L37" s="4">
         <f>-144-7</f>
         <v>-151</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M37" s="4">
         <f>-148-10</f>
         <v>-158</v>
       </c>
-      <c r="T35" s="4">
+      <c r="T37" s="4">
         <f>-1114-43</f>
         <v>-1157</v>
       </c>
-      <c r="U35" s="4">
+      <c r="U37" s="4">
         <f>-510-23</f>
         <v>-533</v>
       </c>
-      <c r="V35" s="4">
+      <c r="V37" s="4">
         <f>-406-38</f>
         <v>-444</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="4">
-        <v>59</v>
-      </c>
-      <c r="H36" s="4">
-        <v>50</v>
-      </c>
-      <c r="I36" s="4">
-        <v>39</v>
-      </c>
-      <c r="K36" s="4">
-        <v>53</v>
-      </c>
-      <c r="L36" s="4">
-        <v>55</v>
-      </c>
-      <c r="M36" s="4">
-        <v>45</v>
-      </c>
-      <c r="T36" s="4">
-        <v>217</v>
-      </c>
-      <c r="U36" s="4">
-        <v>188</v>
-      </c>
-      <c r="V36" s="4">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B37" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="4">
-        <v>225</v>
-      </c>
-      <c r="H37" s="4">
-        <v>-29</v>
-      </c>
-      <c r="I37" s="4">
-        <v>-28</v>
-      </c>
-      <c r="K37" s="4">
-        <v>3</v>
-      </c>
-      <c r="L37" s="4">
-        <v>-39</v>
-      </c>
-      <c r="M37" s="4">
-        <v>-10</v>
-      </c>
-      <c r="T37" s="4">
-        <v>178</v>
-      </c>
-      <c r="U37" s="4">
-        <v>-180</v>
-      </c>
-      <c r="V37" s="4">
-        <v>153</v>
-      </c>
-    </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="F38" s="4">
+        <v>25</v>
       </c>
       <c r="G38" s="4">
-        <v>-350</v>
+        <v>59</v>
       </c>
       <c r="H38" s="4">
-        <v>-293</v>
+        <v>50</v>
       </c>
       <c r="I38" s="4">
-        <v>89</v>
+        <v>39</v>
+      </c>
+      <c r="J38" s="4">
+        <v>54</v>
       </c>
       <c r="K38" s="4">
-        <v>-163</v>
+        <v>53</v>
       </c>
       <c r="L38" s="4">
-        <v>-420</v>
+        <v>55</v>
       </c>
       <c r="M38" s="4">
-        <v>-58</v>
+        <v>45</v>
       </c>
       <c r="T38" s="4">
-        <v>-28</v>
+        <v>217</v>
       </c>
       <c r="U38" s="4">
-        <v>-358</v>
+        <v>188</v>
       </c>
       <c r="V38" s="4">
-        <v>-837</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="F39" s="4">
+        <v>-388</v>
       </c>
       <c r="G39" s="4">
+        <v>225</v>
+      </c>
+      <c r="H39" s="4">
+        <v>-29</v>
+      </c>
+      <c r="I39" s="4">
+        <v>-28</v>
+      </c>
+      <c r="J39" s="4">
+        <v>-15</v>
+      </c>
+      <c r="K39" s="4">
+        <v>3</v>
+      </c>
+      <c r="L39" s="4">
+        <v>-39</v>
+      </c>
+      <c r="M39" s="4">
+        <v>-10</v>
+      </c>
+      <c r="T39" s="4">
+        <v>178</v>
+      </c>
+      <c r="U39" s="4">
+        <v>-180</v>
+      </c>
+      <c r="V39" s="4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="4">
+        <f>-558-12</f>
+        <v>-570</v>
+      </c>
+      <c r="G40" s="4">
+        <v>-350</v>
+      </c>
+      <c r="H40" s="4">
+        <v>-293</v>
+      </c>
+      <c r="I40" s="4">
+        <v>89</v>
+      </c>
+      <c r="J40" s="4">
+        <f>-283-5</f>
+        <v>-288</v>
+      </c>
+      <c r="K40" s="4">
+        <v>-163</v>
+      </c>
+      <c r="L40" s="4">
+        <v>-420</v>
+      </c>
+      <c r="M40" s="4">
+        <v>-58</v>
+      </c>
+      <c r="T40" s="4">
+        <v>-28</v>
+      </c>
+      <c r="U40" s="4">
+        <v>-358</v>
+      </c>
+      <c r="V40" s="4">
+        <v>-837</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="4">
+        <f>-79-50+107+210+1178</f>
+        <v>1366</v>
+      </c>
+      <c r="G41" s="4">
         <f>-422-238+110+114-583</f>
         <v>-1019</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H41" s="4">
         <f>-83-100+98+143</f>
         <v>58</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I41" s="4">
         <f>161-110-67-18+100</f>
         <v>66</v>
       </c>
-      <c r="K39" s="4">
+      <c r="J41" s="4">
+        <f>302-178-124+422+834</f>
+        <v>1256</v>
+      </c>
+      <c r="K41" s="4">
         <f>53-140+64-381-605</f>
         <v>-1009</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L41" s="4">
         <f>-202+63+163-42+134</f>
         <v>116</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M41" s="4">
         <f>-69-156-32+281+325</f>
         <v>349</v>
       </c>
-      <c r="T39" s="4">
+      <c r="T41" s="4">
         <f>-8-685-276+744+513</f>
         <v>288</v>
       </c>
-      <c r="U39" s="4">
+      <c r="U41" s="4">
         <f>-739-440+232-155+357</f>
         <v>-745</v>
       </c>
-      <c r="V39" s="4">
+      <c r="V41" s="4">
         <f>-42-626+17+518+494</f>
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="6">
-        <f>SUM(G29:G39)</f>
-        <v>-784</v>
-      </c>
-      <c r="H40" s="6">
-        <f>SUM(H29:H39)</f>
-        <v>1360</v>
-      </c>
-      <c r="I40" s="6">
-        <f>SUM(I29:I39)</f>
-        <v>1809</v>
-      </c>
-      <c r="K40" s="6">
-        <f>SUM(K29:K39)</f>
-        <v>448</v>
-      </c>
-      <c r="L40" s="6">
-        <f>SUM(L29:L39)</f>
-        <v>1371</v>
-      </c>
-      <c r="M40" s="6">
-        <f>SUM(M29:M39)</f>
-        <v>1997</v>
-      </c>
-      <c r="T40" s="6">
-        <f>SUM(T29:T39)</f>
-        <v>6038</v>
-      </c>
-      <c r="U40" s="6">
-        <f>SUM(U29:U39)</f>
-        <v>5304</v>
-      </c>
-      <c r="V40" s="6">
-        <f>SUM(V29:V39)</f>
-        <v>5340</v>
-      </c>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-    </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="F42" s="6">
+        <f>SUM(F31:F41)</f>
+        <v>2366</v>
+      </c>
       <c r="G42" s="6">
-        <v>-193</v>
+        <f>SUM(G31:G41)</f>
+        <v>-784</v>
       </c>
       <c r="H42" s="6">
-        <v>-233</v>
+        <f>SUM(H31:H41)</f>
+        <v>1360</v>
       </c>
       <c r="I42" s="6">
-        <v>-249</v>
-      </c>
-      <c r="J42" s="6"/>
+        <f>SUM(I31:I41)</f>
+        <v>1809</v>
+      </c>
+      <c r="J42" s="6">
+        <f>SUM(J31:J41)</f>
+        <v>2955</v>
+      </c>
       <c r="K42" s="6">
-        <v>-233</v>
+        <f>SUM(K31:K41)</f>
+        <v>448</v>
       </c>
       <c r="L42" s="6">
-        <v>-259</v>
-      </c>
-      <c r="M42" s="4">
-        <v>-279</v>
+        <f>SUM(L31:L41)</f>
+        <v>1371</v>
+      </c>
+      <c r="M42" s="6">
+        <f>SUM(M31:M41)</f>
+        <v>1997</v>
       </c>
       <c r="T42" s="6">
-        <v>-895</v>
+        <f>SUM(T31:T41)</f>
+        <v>6038</v>
       </c>
       <c r="U42" s="6">
-        <v>-766</v>
+        <f>SUM(U31:U41)</f>
+        <v>5304</v>
       </c>
       <c r="V42" s="6">
-        <v>-1039</v>
+        <f>SUM(V31:V41)</f>
+        <v>5340</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B43" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="6">
-        <f>+G40+G42</f>
-        <v>-977</v>
-      </c>
-      <c r="H43" s="6">
-        <f>+H40+H42</f>
-        <v>1127</v>
-      </c>
-      <c r="I43" s="6">
-        <f>+I40+I42</f>
-        <v>1560</v>
-      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="6">
-        <f>+K40+K42</f>
-        <v>215</v>
-      </c>
-      <c r="L43" s="6">
-        <f>+L40+L42</f>
-        <v>1112</v>
-      </c>
-      <c r="M43" s="6">
-        <f>+M40+M42</f>
-        <v>1718</v>
-      </c>
-      <c r="T43" s="6">
-        <f>T40+T42</f>
-        <v>5143</v>
-      </c>
-      <c r="U43" s="6">
-        <f>U40+U42</f>
-        <v>4538</v>
-      </c>
-      <c r="V43" s="6">
-        <f>V40+V42</f>
-        <v>4301</v>
-      </c>
+      <c r="L43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6">
+        <v>2366</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6">
+        <v>1360</v>
+      </c>
+      <c r="I44" s="6">
+        <v>1809</v>
+      </c>
+      <c r="J44" s="6">
+        <v>2995</v>
+      </c>
+      <c r="L44" s="6">
+        <v>1371</v>
+      </c>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7">
-        <f>+K14/G14 - 1</f>
-        <v>2.7188628158844708E-2</v>
-      </c>
-      <c r="L45" s="7">
-        <f>+L14/H14 - 1</f>
-        <v>4.7124425978569917E-2</v>
-      </c>
-      <c r="M45" s="7">
+        <v>24</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6">
+        <v>-241</v>
+      </c>
+      <c r="G45" s="6">
+        <v>-193</v>
+      </c>
+      <c r="H45" s="6">
+        <v>-233</v>
+      </c>
+      <c r="I45" s="6">
+        <v>-249</v>
+      </c>
+      <c r="J45" s="6">
+        <v>-364</v>
+      </c>
+      <c r="K45" s="6">
+        <v>-233</v>
+      </c>
+      <c r="L45" s="6">
+        <v>-259</v>
+      </c>
+      <c r="M45" s="4">
+        <v>-279</v>
+      </c>
+      <c r="T45" s="6">
+        <v>-895</v>
+      </c>
+      <c r="U45" s="6">
+        <v>-766</v>
+      </c>
+      <c r="V45" s="6">
+        <v>-1039</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6">
+        <f>+F42+F45</f>
+        <v>2125</v>
+      </c>
+      <c r="G46" s="6">
+        <f>+G42+G45</f>
+        <v>-977</v>
+      </c>
+      <c r="H46" s="6">
+        <f>+H44+H45</f>
+        <v>1127</v>
+      </c>
+      <c r="I46" s="6">
+        <f>+I44+I45</f>
+        <v>1560</v>
+      </c>
+      <c r="J46" s="6">
+        <f>+J44+J45</f>
+        <v>2631</v>
+      </c>
+      <c r="K46" s="6">
+        <f>+K42+K45</f>
+        <v>215</v>
+      </c>
+      <c r="L46" s="6">
+        <f>+L42+L45</f>
+        <v>1112</v>
+      </c>
+      <c r="M46" s="6">
+        <f>+M42+M45</f>
+        <v>1718</v>
+      </c>
+      <c r="T46" s="6">
+        <f>T42+T45</f>
+        <v>5143</v>
+      </c>
+      <c r="U46" s="6">
+        <f>U42+U45</f>
+        <v>4538</v>
+      </c>
+      <c r="V46" s="6">
+        <f>V42+V45</f>
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7">
+        <f>+J14/F14 - 1</f>
+        <v>2.7650772915305932E-2</v>
+      </c>
+      <c r="K48" s="7">
+        <f>+K13/G13 - 1</f>
+        <v>0.11276429130775245</v>
+      </c>
+      <c r="L48" s="7">
+        <f>+L14/H13 - 1</f>
+        <v>2.5404805914972273</v>
+      </c>
+      <c r="M48" s="7">
         <f>+M14/I14 - 1</f>
         <v>5.6013894919670015E-2</v>
       </c>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7">
+      <c r="T48" s="7"/>
+      <c r="U48" s="7">
         <f>U14/T14-1</f>
         <v>3.1228192602930971E-2</v>
       </c>
-      <c r="V45" s="7">
+      <c r="V48" s="7">
         <f>V14/U14-1</f>
         <v>3.3722438391699194E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B46" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H46" s="7">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="7">
+        <f>+G16/F16 -1</f>
+        <v>-1.4925373134328401E-2</v>
+      </c>
+      <c r="H49" s="7">
         <f>+H16/G16 -1</f>
         <v>4.5751633986928164E-2</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I49" s="7">
         <f>+I16/H16 -1</f>
         <v>6.2500000000000888E-3</v>
       </c>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7">
+      <c r="J49" s="7">
+        <f>+J16/I16 -1</f>
+        <v>-8.5544889892716025E-2</v>
+      </c>
+      <c r="K49" s="7">
+        <f>+K16/J16 -1</f>
+        <v>-1.8462488422352576</v>
+      </c>
+      <c r="L49" s="7">
         <f>+L16/K16 -1</f>
-        <v>5.6501987507098228E-2</v>
-      </c>
-      <c r="M46" s="7">
+        <v>-2.3575337468077344</v>
+      </c>
+      <c r="M49" s="7">
         <f>+M16/L16 -1</f>
         <v>7.5248589088954265E-3</v>
       </c>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7">
-        <f>+G16/G14</f>
-        <v>0.37973826714801445</v>
-      </c>
-      <c r="H47" s="7">
-        <f>+H16/H14</f>
-        <v>0.38486770172753115</v>
-      </c>
-      <c r="I47" s="7">
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="7">
+        <f>+F16/F13</f>
+        <v>1.2992395437262358</v>
+      </c>
+      <c r="G50" s="7">
+        <f>+G16/G13</f>
+        <v>1.3179326546593579</v>
+      </c>
+      <c r="H50" s="7">
+        <f>+H16/H13</f>
+        <v>1.3012939001848429</v>
+      </c>
+      <c r="I50" s="7">
         <f>+I16/I14</f>
         <v>0.38449848024316108</v>
       </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7">
-        <f>+K16/K14</f>
-        <v>0.3868204283360791</v>
-      </c>
-      <c r="L47" s="7">
+      <c r="J50" s="7">
+        <f>+J16/J14</f>
+        <v>0.34311440677966104</v>
+      </c>
+      <c r="K50" s="7">
+        <f>+K16/K13</f>
+        <v>-0.96446164672765655</v>
+      </c>
+      <c r="L50" s="7">
         <f>+L16/L14</f>
         <v>0.38853503184713378</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M50" s="7">
         <f>+M16/M14</f>
         <v>0.38538240131578949</v>
       </c>
-      <c r="T47" s="7">
+      <c r="T50" s="7">
         <f>T16/T14</f>
         <v>0.35854268434519654</v>
       </c>
-      <c r="U47" s="7">
+      <c r="U50" s="7">
         <f>U16/U14</f>
         <v>0.36990356961597021</v>
       </c>
-      <c r="V47" s="7">
+      <c r="V50" s="7">
         <f>V16/V14</f>
         <v>0.3727838088483989</v>
       </c>
